--- a/communitySmellsDataset.xlsx
+++ b/communitySmellsDataset.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O172"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -13330,6 +13330,81 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://github.com/tensorflow/ranking</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>tensorflow</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>12/03/2018</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
